--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A2CDCB-FF3F-42E4-AF57-FA48CD3C20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0F1F2E62-1ECD-44BD-8E8C-233C086E334B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$12</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$E$1:$E$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
   <si>
     <t>Result</t>
   </si>
@@ -261,39 +261,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Mon Nov 08 22:38:39 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:40:05 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:41:31 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:42:56 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:44:21 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:45:49 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:47:18 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:48:43 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:50:11 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:51:39 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:53:05 EST 2021</t>
-  </si>
-  <si>
     <t>BusName</t>
   </si>
   <si>
@@ -307,12 +274,82 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:36:00 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:37:24 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:38:05 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:45:37 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:46:14 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:46:51 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:52:41 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 19:58:31 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:35:50 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:40:56 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:42:21 EDT 2022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:43:44 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:44:24 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:45:00 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:46:10 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:46:51 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:47:28 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:48:05 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:48:42 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:49:19 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:49:56 EDT 2022</t>
+  </si>
+  <si>
+    <t>Tue Oct 25 22:50:34 EDT 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,19 +398,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,10 +427,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -428,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -480,7 +517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -591,21 +628,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -622,7 +659,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -674,38 +711,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10" style="1" collapsed="1"/>
-    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="12" max="12" style="1" width="10.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="17" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -725,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -763,10 +799,10 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -775,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -810,7 +846,10 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -819,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -854,7 +893,10 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -895,7 +937,10 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -936,6 +981,9 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -945,7 +993,7 @@
         <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -980,7 +1028,10 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -989,7 +1040,7 @@
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -1024,7 +1075,10 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1033,7 +1087,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>24</v>
@@ -1068,7 +1122,10 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -1077,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -1112,7 +1169,10 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -1121,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>26</v>
@@ -1156,7 +1216,10 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -1165,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>27</v>
@@ -1200,7 +1263,10 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -1209,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>28</v>
@@ -1242,7 +1308,7 @@
   </sheetData>
   <autoFilter ref="E1:E12" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{0F1F2E62-1ECD-44BD-8E8C-233C086E334B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46527AFF-9E9E-4E12-8C77-029C86364196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}" yWindow="-120"/>
+    <workbookView xWindow="1890" yWindow="1590" windowWidth="16665" windowHeight="14730" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$E$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>Result</t>
   </si>
@@ -276,80 +276,58 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Tue Oct 25 19:36:00 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 19:37:24 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 19:38:05 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 19:45:37 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 19:46:14 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 19:46:51 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 19:52:41 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 19:58:31 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:35:50 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:40:56 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:42:21 EDT 2022</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:43:44 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:44:24 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:45:00 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:46:10 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:46:51 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:47:28 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:48:05 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:48:42 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:49:19 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:49:56 EDT 2022</t>
-  </si>
-  <si>
-    <t>Tue Oct 25 22:50:34 EDT 2022</t>
+    <t>NotiInvoNumber</t>
+  </si>
+  <si>
+    <t>2581471470001</t>
+  </si>
+  <si>
+    <t>2581471470</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:41:15 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:42:04 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:42:53 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:43:42 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:45:08 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:46:00 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:46:50 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:47:39 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:48:27 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:49:17 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:50:06 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:50:56 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:51:45 EDT 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,19 +376,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,10 +405,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -465,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -517,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -628,21 +606,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -659,7 +637,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -711,40 +689,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="12" max="12" style="1" width="10.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="17" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" style="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,30 +755,33 @@
         <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -823,30 +805,33 @@
         <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>21054</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -870,30 +855,33 @@
         <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>21114</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>78</v>
@@ -902,42 +890,48 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="1">
-        <v>20720</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1">
+        <v>21114</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -946,42 +940,45 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="1">
-        <v>21144</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="1">
+        <v>20720</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -990,45 +987,45 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="1">
-        <v>21093</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1">
+        <v>21144</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>78</v>
@@ -1037,45 +1034,48 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1">
-        <v>21054</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="1">
+        <v>21093</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>78</v>
@@ -1084,45 +1084,48 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="1">
-        <v>21114</v>
-      </c>
-      <c r="N8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1">
+        <v>21054</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="P8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>78</v>
@@ -1131,45 +1134,48 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="1">
-        <v>20720</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1">
+        <v>21114</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>78</v>
@@ -1178,45 +1184,48 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="1">
-        <v>21144</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="1">
+        <v>20720</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>78</v>
@@ -1225,45 +1234,48 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="1">
-        <v>21093</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="1">
+        <v>21144</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
@@ -1272,43 +1284,146 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="1">
+        <v>21093</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N13" s="1">
         <v>21054</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="1">
+        <v>21054</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E12" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}"/>
+  <autoFilter ref="E1:E13" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46527AFF-9E9E-4E12-8C77-029C86364196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD05AA15-2390-4BCA-991A-7E1FE5DDC821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1590" windowWidth="16665" windowHeight="14730" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}"/>
+    <workbookView xWindow="1635" yWindow="1215" windowWidth="23250" windowHeight="14730" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,43 +285,43 @@
     <t>2581471470</t>
   </si>
   <si>
-    <t>Wed Nov 02 16:41:15 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:42:04 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:42:53 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:43:42 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:45:08 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:46:00 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:46:50 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:47:39 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:48:27 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:49:17 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:50:06 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:50:56 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:51:45 EDT 2022</t>
+    <t>Wed Jan 04 19:01:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:02:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:02:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:03:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:05:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:06:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:06:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:07:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:08:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:09:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:10:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:11:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 19:11:49 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,5 +1425,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD05AA15-2390-4BCA-991A-7E1FE5DDC821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AD05AA15-2390-4BCA-991A-7E1FE5DDC821}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1215" windowWidth="23250" windowHeight="14730" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}"/>
+    <workbookView windowHeight="14730" windowWidth="23250" xWindow="1635" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}" yWindow="1215"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$13</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$E$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="122">
   <si>
     <t>Result</t>
   </si>
@@ -322,12 +322,94 @@
   </si>
   <si>
     <t>Wed Jan 04 19:11:49 EST 2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:25:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:25:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:26:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:27:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:28:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:29:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:29:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:30:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:31:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:32:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:32:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:33:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:34:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:04:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:05:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:05:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:06:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:07:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:08:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:09:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:09:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:10:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:11:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:12:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:13:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 17:13:49 EST 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,19 +458,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,10 +487,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -443,7 +525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -495,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,21 +688,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -637,7 +719,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -689,15 +771,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
@@ -705,22 +787,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" style="1" collapsed="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="13" max="13" style="1" width="10.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
+    <col min="18" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -781,7 +863,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -831,7 +913,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -881,7 +963,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>78</v>
@@ -931,7 +1013,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -978,7 +1060,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -1025,7 +1107,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>78</v>
@@ -1075,7 +1157,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>78</v>
@@ -1125,7 +1207,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>78</v>
@@ -1175,7 +1257,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>78</v>
@@ -1225,7 +1307,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>78</v>
@@ -1275,7 +1357,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
@@ -1325,7 +1407,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
@@ -1375,7 +1457,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>78</v>
@@ -1423,8 +1505,8 @@
   </sheetData>
   <autoFilter ref="E1:E13" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="135">
   <si>
     <t>Result</t>
   </si>
@@ -403,6 +403,45 @@
   </si>
   <si>
     <t>Wed Feb 08 17:13:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:32:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:33:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:33:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:34:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:35:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:36:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:36:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:37:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:38:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:38:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:39:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:40:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:40:53 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -863,7 +902,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -913,7 +952,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
@@ -963,7 +1002,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>78</v>
@@ -1013,7 +1052,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -1060,7 +1099,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -1107,7 +1146,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>78</v>
@@ -1157,7 +1196,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>78</v>
@@ -1207,7 +1246,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>78</v>
@@ -1257,7 +1296,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>78</v>
@@ -1307,7 +1346,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>78</v>
@@ -1357,7 +1396,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
@@ -1407,7 +1446,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
@@ -1457,7 +1496,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>78</v>

--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AD05AA15-2390-4BCA-991A-7E1FE5DDC821}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{305B24F4-173D-4567-84BE-4344E8A4792F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="14730" windowWidth="23250" xWindow="1635" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}" yWindow="1215"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="100">
   <si>
     <t>Result</t>
   </si>
@@ -285,163 +285,58 @@
     <t>2581471470</t>
   </si>
   <si>
-    <t>Wed Jan 04 19:01:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:02:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:02:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:03:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:05:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:06:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:06:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:07:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:08:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:09:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:10:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:11:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 19:11:49 EST 2023</t>
+    <t>Thu Feb 16 12:32:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:33:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:33:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:34:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:35:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:36:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:36:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:37:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:38:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:38:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:39:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:40:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:40:53 EST 2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Wed Feb 08 12:25:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:25:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:26:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:27:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:28:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:29:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:29:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:30:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:31:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:32:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:32:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:33:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:34:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:04:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:05:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:05:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:06:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:07:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:08:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:09:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:09:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:10:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:11:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:12:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:13:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 17:13:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:32:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:33:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:33:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:34:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:35:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:36:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:36:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:37:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:38:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:38:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:39:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:40:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:40:53 EST 2023</t>
+    <t>Tue Jun 13 13:50:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:51:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:52:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jun 13 13:53:05 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -820,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +797,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -952,10 +844,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1002,10 +891,7 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1052,7 +938,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -1099,10 +985,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1146,10 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1196,10 +1076,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1246,10 +1123,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -1296,7 +1170,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>78</v>
@@ -1346,7 +1220,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>78</v>
@@ -1396,7 +1270,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
@@ -1446,10 +1320,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1496,10 +1367,7 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
   <si>
     <t>Result</t>
   </si>
@@ -337,6 +337,42 @@
   </si>
   <si>
     <t>Tue Jun 13 13:53:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:56:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:56:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:57:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:58:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 20:05:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 20:06:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 20:07:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 20:07:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:27:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:28:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:28:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:29:32 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -938,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>78</v>
@@ -1170,7 +1206,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>78</v>
@@ -1220,7 +1256,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>78</v>
@@ -1270,7 +1306,7 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>

--- a/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
+++ b/KatalonData/RADTestData/PaymentsELHardCoded.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{305B24F4-173D-4567-84BE-4344E8A4792F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2CE87-ACB5-4C32-AA9B-7A7F2A2ED22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A483EA5-3597-437D-956E-3D53CC3EB978}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$E$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>Result</t>
   </si>
@@ -54,332 +54,271 @@
     <t>TaxTypeEL</t>
   </si>
   <si>
-    <t>Existing Liability</t>
-  </si>
-  <si>
-    <t>Bay Restoration Fund Tax</t>
-  </si>
-  <si>
-    <t>CORP Tax</t>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Nahida</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>2311 York road</t>
+  </si>
+  <si>
+    <t>Gambrills</t>
+  </si>
+  <si>
+    <t>25 Moan Road</t>
+  </si>
+  <si>
+    <t>Severn</t>
+  </si>
+  <si>
+    <t>1501 Mandan Terrace</t>
+  </si>
+  <si>
+    <t>Bowie</t>
+  </si>
+  <si>
+    <t>2336 Turn ct</t>
+  </si>
+  <si>
+    <t>Crofton</t>
+  </si>
+  <si>
+    <t>36 Hoolan Ave</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CCNumber</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>4012000098765439</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>5146312200000035</t>
+  </si>
+  <si>
+    <t>50.50</t>
+  </si>
+  <si>
+    <t>6011000993026909</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Stokes</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>123459630</t>
+  </si>
+  <si>
+    <t>FEIN</t>
+  </si>
+  <si>
+    <t>258369258</t>
+  </si>
+  <si>
+    <t>258369259</t>
+  </si>
+  <si>
+    <t>258369260</t>
+  </si>
+  <si>
+    <t>258369263</t>
+  </si>
+  <si>
+    <t>258369264</t>
+  </si>
+  <si>
+    <t>258369265</t>
+  </si>
+  <si>
+    <t>258369266</t>
+  </si>
+  <si>
+    <t>258369267</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>BusName</t>
+  </si>
+  <si>
+    <t>My Glass Company</t>
+  </si>
+  <si>
+    <t>Light Car Wash</t>
+  </si>
+  <si>
+    <t>Superior, Painters</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NotiInvoNumber</t>
+  </si>
+  <si>
+    <t>2581471470001</t>
+  </si>
+  <si>
+    <t>2581471470</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:32:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:33:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:33:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:35:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:36:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:37:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:40:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:40:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:28:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:29:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fee</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Wed Sep 06 15:16:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Sep 06 15:18:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Corporate Income Tax</t>
   </si>
   <si>
     <t>Fiduciary Tax</t>
   </si>
   <si>
-    <t>Personal Tax</t>
+    <t>Personal Income Tax</t>
   </si>
   <si>
     <t>Sales &amp; Use Tax</t>
   </si>
   <si>
-    <t>Tire Fee Tax</t>
-  </si>
-  <si>
     <t>Withholding Tax</t>
   </si>
   <si>
     <t>Alcohol Tax</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Alec</t>
-  </si>
-  <si>
-    <t>Stuart</t>
-  </si>
-  <si>
-    <t>Broad</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Nahida</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>AL1</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>ZIP</t>
-  </si>
-  <si>
-    <t>2311 York road</t>
-  </si>
-  <si>
-    <t>Gambrills</t>
-  </si>
-  <si>
-    <t>25 Moan Road</t>
-  </si>
-  <si>
-    <t>Severn</t>
-  </si>
-  <si>
-    <t>1501 Mandan Terrace</t>
-  </si>
-  <si>
-    <t>Bowie</t>
-  </si>
-  <si>
-    <t>2336 Turn ct</t>
-  </si>
-  <si>
-    <t>Crofton</t>
-  </si>
-  <si>
-    <t>36 Hoolan Ave</t>
-  </si>
-  <si>
-    <t>Huntsville</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>CCNumber</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>4012000098765439</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>5146312200000035</t>
-  </si>
-  <si>
-    <t>50.50</t>
-  </si>
-  <si>
-    <t>6011000993026909</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Stokes</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>Murray</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>123459630</t>
-  </si>
-  <si>
-    <t>FEIN</t>
-  </si>
-  <si>
-    <t>258369258</t>
-  </si>
-  <si>
-    <t>258369259</t>
-  </si>
-  <si>
-    <t>258369260</t>
-  </si>
-  <si>
-    <t>258369262</t>
-  </si>
-  <si>
-    <t>258369263</t>
-  </si>
-  <si>
-    <t>258369264</t>
-  </si>
-  <si>
-    <t>258369265</t>
-  </si>
-  <si>
-    <t>258369266</t>
-  </si>
-  <si>
-    <t>258369267</t>
-  </si>
-  <si>
-    <t>PTE Tax (LLC)</t>
-  </si>
-  <si>
-    <t>PTE Tax (Partnership)</t>
-  </si>
-  <si>
-    <t>PTE Tax (SCorp)</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>BusName</t>
-  </si>
-  <si>
-    <t>My Glass Company</t>
-  </si>
-  <si>
-    <t>Light Car Wash</t>
-  </si>
-  <si>
-    <t>Superior, Painters</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>NotiInvoNumber</t>
-  </si>
-  <si>
-    <t>2581471470001</t>
-  </si>
-  <si>
-    <t>2581471470</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:32:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:33:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:33:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:34:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:35:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:36:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:36:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:37:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:38:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:38:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:39:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:40:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:40:53 EST 2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:50:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:51:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:52:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jun 13 13:53:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:56:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:56:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:57:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:58:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 20:05:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 20:06:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 20:07:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 20:07:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:27:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:28:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:28:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:29:32 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,19 +367,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -457,10 +396,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -495,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -547,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -658,21 +597,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -689,7 +628,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -741,38 +680,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
-  <dimension ref="A1:R14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="13" max="13" style="1" width="10.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="8.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="4.7109375" collapsed="true"/>
-    <col min="18" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" style="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -792,664 +731,617 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1">
         <v>21054</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1">
         <v>21114</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N4" s="1">
         <v>21114</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1">
         <v>20720</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N6" s="1">
         <v>21144</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1">
-        <v>21093</v>
+        <v>21054</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1">
-        <v>21054</v>
+        <v>21114</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N9" s="1">
-        <v>21114</v>
+        <v>20720</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1">
+        <v>21144</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N10" s="1">
-        <v>20720</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="1">
+        <v>21093</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="1">
-        <v>21144</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Q11" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1">
-        <v>21093</v>
+        <v>21054</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1">
         <v>21054</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="1">
-        <v>21054</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E13" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}"/>
+  <autoFilter ref="E1:E12" xr:uid="{33F8F8F8-AE16-4B12-9448-CA2FBF5C7D40}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
